--- a/biology/Zoologie/Emarginata/Emarginata.xlsx
+++ b/biology/Zoologie/Emarginata/Emarginata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Emarginata est un genre d'oiseaux de la famille des Muscicapidae. Ils sont appelés Traquet.
 </t>
@@ -511,7 +523,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les espèces de ce genre se rencontrent en Afrique australe.
 </t>
@@ -542,10 +556,12 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces de ce genre ont été déplacées du genre Cercomela au genre Emarginata à la suite des travaux de Outlaw et al. (2010)[1], cela a été pris en compte dans la classification de référence du Congrès ornithologique international dans la version 2.10 en 2011. 
-Ces espèces sont proches du Tarier bifascié (Campicoloides bifasciatus)[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces de ce genre ont été déplacées du genre Cercomela au genre Emarginata à la suite des travaux de Outlaw et al. (2010), cela a été pris en compte dans la classification de référence du Congrès ornithologique international dans la version 2.10 en 2011. 
+Ces espèces sont proches du Tarier bifascié (Campicoloides bifasciatus).
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon la classification de référence du Congrès ornithologique international  (version 2.10, 2011)[2] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon la classification de référence du Congrès ornithologique international  (version 2.10, 2011) :
 Emarginata sinuata - Traquet aile-en-faux
 Emarginata schlegelii - Traquet du Karoo
 Emarginata tractrac - Traquet tractrac</t>
@@ -607,7 +625,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Shelley, 1896 : Birds of Africa. London, R.H. Porter.</t>
         </is>
